--- a/isitword test/wordorderen_2.xlsx
+++ b/isitword test/wordorderen_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>word_length</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>worddir</t>
         </is>
       </c>
@@ -463,11 +468,14 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>word/worden0483.png</t>
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>word/worden0513.png</t>
         </is>
       </c>
     </row>
@@ -479,11 +487,14 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>word/worden0271.png</t>
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>word/worden0961.png</t>
         </is>
       </c>
     </row>
@@ -492,14 +503,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>word/worden0033.png</t>
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>word/worden0632.png</t>
         </is>
       </c>
     </row>
@@ -508,14 +522,17 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>word/worden0062.png</t>
+        <v>89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>word/worden0893.png</t>
         </is>
       </c>
     </row>
@@ -527,11 +544,14 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>word/worden0313.png</t>
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>word/worden0643.png</t>
         </is>
       </c>
     </row>
@@ -540,14 +560,17 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>word/worden0113.png</t>
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>word/worden0071.png</t>
         </is>
       </c>
     </row>
@@ -556,14 +579,17 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>word/worden0681.png</t>
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>word/worden0312.png</t>
         </is>
       </c>
     </row>
@@ -572,14 +598,17 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>word/worden0073.png</t>
+        <v>48</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>word/worden0482.png</t>
         </is>
       </c>
     </row>
@@ -588,16 +617,17 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>word/wordenc401.png</t>
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>word/worden0462.png</t>
         </is>
       </c>
     </row>
@@ -609,11 +639,14 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>word/worden0263.png</t>
+        <v>93</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>word/worden0933.png</t>
         </is>
       </c>
     </row>
@@ -622,14 +655,17 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>word/worden0821.png</t>
+        <v>94</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>word/worden0942.png</t>
         </is>
       </c>
     </row>
@@ -640,14 +676,15 @@
       <c r="B13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>word/worden75a2.png</t>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>word/worden0112.png</t>
         </is>
       </c>
     </row>
@@ -659,11 +696,14 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>word/worden0101.png</t>
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>word/worden0061.png</t>
         </is>
       </c>
     </row>
@@ -675,11 +715,14 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>word/worden0061.png</t>
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>word/worden0081.png</t>
         </is>
       </c>
     </row>
@@ -688,14 +731,17 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>word/worden0502.png</t>
+        <v>88</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>word/worden0881.png</t>
         </is>
       </c>
     </row>
@@ -704,14 +750,17 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>41</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>word/worden0411.png</t>
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>word/worden0072.png</t>
         </is>
       </c>
     </row>
@@ -723,11 +772,14 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>89</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>word/worden0891.png</t>
+        <v>68</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>word/worden0681.png</t>
         </is>
       </c>
     </row>
@@ -736,14 +788,17 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>word/worden0082.png</t>
+        <v>48</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>word/worden0483.png</t>
         </is>
       </c>
     </row>
@@ -754,14 +809,15 @@
       <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>word/worden75a3.png</t>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>word/worden0033.png</t>
         </is>
       </c>
     </row>
@@ -770,16 +826,17 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>word/wordenc202.png</t>
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>93</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>word/worden0931.png</t>
         </is>
       </c>
     </row>
@@ -790,14 +847,15 @@
       <c r="B22" t="n">
         <v>2</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>71a</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>word/worden71a2.png</t>
+      <c r="C22" t="n">
+        <v>88</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>word/worden0882.png</t>
         </is>
       </c>
     </row>
@@ -806,14 +864,17 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>word/worden0302.png</t>
+        <v>41</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>word/worden0411.png</t>
         </is>
       </c>
     </row>
@@ -824,14 +885,15 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>word/wordenc201.png</t>
+      <c r="C24" t="n">
+        <v>89</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>word/worden0891.png</t>
         </is>
       </c>
     </row>
@@ -843,11 +905,14 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>word/worden0032.png</t>
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>word/worden0232.png</t>
         </is>
       </c>
     </row>
@@ -856,14 +921,17 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>70</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>word/worden0702.png</t>
+        <v>64</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>word/worden0641.png</t>
         </is>
       </c>
     </row>
@@ -872,16 +940,17 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>71a</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>word/worden71a1.png</t>
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>word/worden0303.png</t>
         </is>
       </c>
     </row>
@@ -892,14 +961,15 @@
       <c r="B28" t="n">
         <v>3</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>word/worden23a3.png</t>
+      <c r="C28" t="n">
+        <v>22</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>word/worden0223.png</t>
         </is>
       </c>
     </row>
@@ -908,14 +978,17 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>64</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>word/worden0643.png</t>
+        <v>94</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>word/worden0941.png</t>
         </is>
       </c>
     </row>
@@ -924,14 +997,17 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>word/worden0413.png</t>
+        <v>93</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>word/worden0932.png</t>
         </is>
       </c>
     </row>
@@ -940,14 +1016,17 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>52</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>word/worden0523.png</t>
+        <v>71</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>word/worden0711.png</t>
         </is>
       </c>
     </row>
@@ -956,16 +1035,17 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>word/worden23a1.png</t>
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>70</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>word/worden0703.png</t>
         </is>
       </c>
     </row>
@@ -977,11 +1057,14 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>82</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>word/worden0823.png</t>
+        <v>23</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>word/worden0233.png</t>
         </is>
       </c>
     </row>
@@ -990,14 +1073,17 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>87</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>word/worden0872.png</t>
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>word/worden0013.png</t>
         </is>
       </c>
     </row>
@@ -1009,11 +1095,14 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>88</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>word/worden0882.png</t>
+        <v>22</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>word/worden0222.png</t>
         </is>
       </c>
     </row>
@@ -1025,11 +1114,14 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>61</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>word/worden0611.png</t>
+        <v>31</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>word/worden0311.png</t>
         </is>
       </c>
     </row>
@@ -1041,11 +1133,14 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>11</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>word/worden0112.png</t>
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>word/worden0082.png</t>
         </is>
       </c>
     </row>
@@ -1054,14 +1149,17 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>42</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>word/worden0422.png</t>
+        <v>30</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>word/worden0301.png</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1168,17 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>44</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>word/worden0442.png</t>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>word/worden0441.png</t>
         </is>
       </c>
     </row>
@@ -1086,16 +1187,17 @@
         <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>word/worden75a1.png</t>
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>44</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>word/worden0442.png</t>
         </is>
       </c>
     </row>
@@ -1104,14 +1206,17 @@
         <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>word/worden0301.png</t>
+        <v>87</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>word/worden0873.png</t>
         </is>
       </c>
     </row>
@@ -1122,14 +1227,15 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>word/wordend101.png</t>
+      <c r="C42" t="n">
+        <v>52</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>word/worden0521.png</t>
         </is>
       </c>
     </row>
@@ -1138,14 +1244,17 @@
         <v>2</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>66</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>word/worden0662.png</t>
+        <v>11</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>word/worden0113.png</t>
         </is>
       </c>
     </row>
@@ -1156,14 +1265,15 @@
       <c r="B44" t="n">
         <v>2</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>word/wordenc402.png</t>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>word/worden0032.png</t>
         </is>
       </c>
     </row>
@@ -1172,14 +1282,17 @@
         <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>89</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>word/worden0893.png</t>
+        <v>75</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>word/worden0751.png</t>
         </is>
       </c>
     </row>
@@ -1188,14 +1301,17 @@
         <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>51</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>word/worden0511.png</t>
+        <v>96</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>word/worden0962.png</t>
         </is>
       </c>
     </row>
@@ -1207,11 +1323,14 @@
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>51</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>word/worden0513.png</t>
+        <v>75</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>word/worden0753.png</t>
         </is>
       </c>
     </row>
@@ -1220,14 +1339,17 @@
         <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>48</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>word/worden0482.png</t>
+        <v>95</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>word/worden0951.png</t>
         </is>
       </c>
     </row>
@@ -1236,14 +1358,17 @@
         <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>word/worden0071.png</t>
+        <v>41</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>word/worden0413.png</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1382,10 @@
       <c r="C50" t="n">
         <v>11</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>word/worden0111.png</t>
         </is>
@@ -1271,11 +1399,14 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>word/worden0701.png</t>
+        <v>24</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>word/worden0241.png</t>
         </is>
       </c>
     </row>
@@ -1287,11 +1418,14 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>word/worden0311.png</t>
+        <v>61</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>word/worden0611.png</t>
         </is>
       </c>
     </row>
@@ -1300,14 +1434,17 @@
         <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
+        <v>82</v>
+      </c>
+      <c r="D53" t="n">
         <v>7</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>word/worden0072.png</t>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>word/worden0821.png</t>
         </is>
       </c>
     </row>
@@ -1319,11 +1456,14 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>61</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>word/worden0612.png</t>
+        <v>64</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>word/worden0642.png</t>
         </is>
       </c>
     </row>
@@ -1332,14 +1472,17 @@
         <v>2</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>27</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>word/worden0273.png</t>
+        <v>22</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>word/worden0221.png</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1496,10 @@
       <c r="C56" t="n">
         <v>41</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>word/worden0412.png</t>
         </is>
@@ -1364,14 +1510,17 @@
         <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>word/worden0031.png</t>
+        <v>68</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>word/worden0682.png</t>
         </is>
       </c>
     </row>
@@ -1380,14 +1529,17 @@
         <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>87</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>word/worden0871.png</t>
+        <v>28</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>word/worden0283.png</t>
         </is>
       </c>
     </row>
@@ -1396,16 +1548,17 @@
         <v>2</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>71a</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>word/worden71a3.png</t>
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>51</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>word/worden0512.png</t>
         </is>
       </c>
     </row>
@@ -1417,11 +1570,14 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>87</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>word/worden0873.png</t>
+        <v>66</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>word/worden0663.png</t>
         </is>
       </c>
     </row>
@@ -1433,11 +1589,14 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>word/worden0103.png</t>
+        <v>82</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>word/worden0823.png</t>
         </is>
       </c>
     </row>
@@ -1449,11 +1608,14 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>42</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>word/worden0421.png</t>
+        <v>10</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>word/worden0101.png</t>
         </is>
       </c>
     </row>
@@ -1462,14 +1624,17 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>27</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>word/worden0272.png</t>
+        <v>46</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>word/worden0463.png</t>
         </is>
       </c>
     </row>
@@ -1478,16 +1643,17 @@
         <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>word/wordenc102.png</t>
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>word/worden0091.png</t>
         </is>
       </c>
     </row>
@@ -1499,11 +1665,14 @@
         <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>93</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>word/worden0933.png</t>
+        <v>88</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>word/worden0883.png</t>
         </is>
       </c>
     </row>
@@ -1512,14 +1681,17 @@
         <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>word/worden0283.png</t>
+        <v>51</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>word/worden0511.png</t>
         </is>
       </c>
     </row>
@@ -1528,14 +1700,17 @@
         <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>95</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>word/worden0952.png</t>
+        <v>50</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>word/worden0503.png</t>
         </is>
       </c>
     </row>
@@ -1547,11 +1722,14 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>52</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>word/worden0522.png</t>
+        <v>82</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>word/worden0822.png</t>
         </is>
       </c>
     </row>
@@ -1562,14 +1740,15 @@
       <c r="B69" t="n">
         <v>3</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>word/wordenc103.png</t>
+      <c r="C69" t="n">
+        <v>95</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>word/worden0953.png</t>
         </is>
       </c>
     </row>
@@ -1578,14 +1757,17 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>93</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>word/worden0932.png</t>
+        <v>31</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>word/worden0313.png</t>
         </is>
       </c>
     </row>
@@ -1597,11 +1779,14 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>50</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>word/worden0501.png</t>
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>word/worden0031.png</t>
         </is>
       </c>
     </row>
@@ -1610,14 +1795,17 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>51</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>word/worden0512.png</t>
+        <v>46</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>word/worden0461.png</t>
         </is>
       </c>
     </row>
@@ -1629,11 +1817,14 @@
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>61</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>word/worden0613.png</t>
+        <v>7</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>word/worden0073.png</t>
         </is>
       </c>
     </row>
@@ -1642,14 +1833,17 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>93</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>word/worden0931.png</t>
+        <v>95</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>word/worden0952.png</t>
         </is>
       </c>
     </row>
@@ -1658,14 +1852,17 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>31</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>word/worden0312.png</t>
+        <v>6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>word/worden0063.png</t>
         </is>
       </c>
     </row>
@@ -1674,14 +1871,17 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>82</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>word/worden0822.png</t>
+        <v>52</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>word/worden0523.png</t>
         </is>
       </c>
     </row>
@@ -1693,11 +1893,14 @@
         <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>63</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>word/worden0633.png</t>
+        <v>71</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>word/worden0713.png</t>
         </is>
       </c>
     </row>
@@ -1708,14 +1911,15 @@
       <c r="B78" t="n">
         <v>3</v>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>word/wordend103.png</t>
+      <c r="C78" t="n">
+        <v>63</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>word/worden0633.png</t>
         </is>
       </c>
     </row>
@@ -1724,14 +1928,17 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>68</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>word/worden0683.png</t>
+        <v>63</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>word/worden0631.png</t>
         </is>
       </c>
     </row>
@@ -1740,14 +1947,17 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>89</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>word/worden0892.png</t>
+        <v>28</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>word/worden0281.png</t>
         </is>
       </c>
     </row>
@@ -1756,14 +1966,17 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>68</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>word/worden0682.png</t>
+        <v>94</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>word/worden0943.png</t>
         </is>
       </c>
     </row>
@@ -1772,14 +1985,17 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>28</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>word/worden0281.png</t>
+        <v>8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>word/worden0083.png</t>
         </is>
       </c>
     </row>
@@ -1791,11 +2007,14 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>44</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>word/worden0441.png</t>
+        <v>87</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>word/worden0871.png</t>
         </is>
       </c>
     </row>
@@ -1807,11 +2026,14 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>28</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>word/worden0282.png</t>
+        <v>24</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>word/worden0242.png</t>
         </is>
       </c>
     </row>
@@ -1820,14 +2042,17 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>64</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>word/worden0641.png</t>
+        <v>61</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>word/worden0612.png</t>
         </is>
       </c>
     </row>
@@ -1836,14 +2061,17 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>word/worden0083.png</t>
+        <v>52</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>word/worden0522.png</t>
         </is>
       </c>
     </row>
@@ -1852,14 +2080,17 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>22</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>word/worden0222.png</t>
+        <v>42</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>word/worden0421.png</t>
         </is>
       </c>
     </row>
@@ -1871,11 +2102,14 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>24</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>word/worden0242.png</t>
+        <v>9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>word/worden0092.png</t>
         </is>
       </c>
     </row>
@@ -1887,11 +2121,14 @@
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>word/worden0102.png</t>
+        <v>6</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>word/worden0062.png</t>
         </is>
       </c>
     </row>
@@ -1900,14 +2137,17 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>66</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>word/worden0663.png</t>
+      <c r="D90" t="n">
+        <v>6</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>word/worden0661.png</t>
         </is>
       </c>
     </row>
@@ -1919,11 +2159,14 @@
         <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>64</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>word/worden0642.png</t>
+        <v>30</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>word/worden0302.png</t>
         </is>
       </c>
     </row>
@@ -1932,14 +2175,17 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>88</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>word/worden0881.png</t>
+        <v>42</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>word/worden0423.png</t>
         </is>
       </c>
     </row>
@@ -1948,14 +2194,17 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>70</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>word/worden0703.png</t>
+        <v>50</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>word/worden0502.png</t>
         </is>
       </c>
     </row>
@@ -1964,14 +2213,17 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>44</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>word/worden0443.png</t>
+        <v>48</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>word/worden0481.png</t>
         </is>
       </c>
     </row>
@@ -1980,16 +2232,17 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>word/wordenc101.png</t>
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>26</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>word/worden0262.png</t>
         </is>
       </c>
     </row>
@@ -1998,16 +2251,17 @@
         <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>word/wordenc303.png</t>
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>27</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>word/worden0272.png</t>
         </is>
       </c>
     </row>
@@ -2016,16 +2270,17 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>word/wordend102.png</t>
+        <v>3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>10</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>word/worden0103.png</t>
         </is>
       </c>
     </row>
@@ -2036,14 +2291,15 @@
       <c r="B98" t="n">
         <v>3</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>word/wordenc403.png</t>
+      <c r="C98" t="n">
+        <v>61</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>word/worden0613.png</t>
         </is>
       </c>
     </row>
@@ -2055,11 +2311,14 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>22</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>word/worden0221.png</t>
+        <v>27</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>word/worden0271.png</t>
         </is>
       </c>
     </row>
@@ -2071,11 +2330,14 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>95</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>word/worden0953.png</t>
+        <v>24</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>word/worden0243.png</t>
         </is>
       </c>
     </row>
@@ -2084,14 +2346,17 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>66</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>word/worden0661.png</t>
+        <v>26</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>word/worden0263.png</t>
         </is>
       </c>
     </row>
@@ -2102,14 +2367,15 @@
       <c r="B102" t="n">
         <v>2</v>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>word/wordenc302.png</t>
+      <c r="C102" t="n">
+        <v>28</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>word/worden0282.png</t>
         </is>
       </c>
     </row>
@@ -2121,11 +2387,14 @@
         <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>22</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>word/worden0223.png</t>
+        <v>9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>word/worden0093.png</t>
         </is>
       </c>
     </row>
@@ -2134,16 +2403,17 @@
         <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>word/wordenc301.png</t>
+        <v>2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>70</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>word/worden0702.png</t>
         </is>
       </c>
     </row>
@@ -2152,14 +2422,17 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>24</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>word/worden0243.png</t>
+        <v>66</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>word/worden0662.png</t>
         </is>
       </c>
     </row>
@@ -2168,14 +2441,17 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>52</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>word/worden0521.png</t>
+        <v>42</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>word/worden0422.png</t>
         </is>
       </c>
     </row>
@@ -2184,14 +2460,17 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>24</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>word/worden0241.png</t>
+        <v>89</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>word/worden0892.png</t>
         </is>
       </c>
     </row>
@@ -2200,14 +2479,17 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>88</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>word/worden0883.png</t>
+        <v>87</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>word/worden0872.png</t>
         </is>
       </c>
     </row>
@@ -2216,14 +2498,17 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>26</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>word/worden0262.png</t>
+      <c r="D109" t="n">
+        <v>4</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>word/worden0261.png</t>
         </is>
       </c>
     </row>
@@ -2232,14 +2517,17 @@
         <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>63</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>word/worden0632.png</t>
+        <v>50</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>word/worden0501.png</t>
         </is>
       </c>
     </row>
@@ -2251,11 +2539,14 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>63</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>word/worden0631.png</t>
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>word/worden0011.png</t>
         </is>
       </c>
     </row>
@@ -2267,11 +2558,14 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>30</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>word/worden0303.png</t>
+        <v>68</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>word/worden0683.png</t>
         </is>
       </c>
     </row>
@@ -2280,14 +2574,17 @@
         <v>2</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>word/worden0081.png</t>
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>word/worden0012.png</t>
         </is>
       </c>
     </row>
@@ -2296,14 +2593,17 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>26</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>word/worden0261.png</t>
+        <v>71</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>word/worden0712.png</t>
         </is>
       </c>
     </row>
@@ -2315,11 +2615,14 @@
         <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>42</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>word/worden0423.png</t>
+        <v>44</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>word/worden0443.png</t>
         </is>
       </c>
     </row>
@@ -2328,14 +2631,17 @@
         <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>48</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>word/worden0481.png</t>
+        <v>75</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>word/worden0752.png</t>
         </is>
       </c>
     </row>
@@ -2344,16 +2650,17 @@
         <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>word/worden23a2.png</t>
+        <v>3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>96</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>word/worden0963.png</t>
         </is>
       </c>
     </row>
@@ -2362,14 +2669,17 @@
         <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>50</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>word/worden0503.png</t>
+        <v>70</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>word/worden0701.png</t>
         </is>
       </c>
     </row>
@@ -2378,14 +2688,17 @@
         <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>95</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>word/worden0951.png</t>
+        <v>10</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>word/worden0102.png</t>
         </is>
       </c>
     </row>
@@ -2397,11 +2710,14 @@
         <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>word/worden0063.png</t>
+        <v>27</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>word/worden0273.png</t>
         </is>
       </c>
     </row>
@@ -2410,16 +2726,17 @@
         <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>word/wordenc203.png</t>
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>23</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>word/worden0231.png</t>
         </is>
       </c>
     </row>
